--- a/BackTest/2020-01-15 BackTest DAD.xlsx
+++ b/BackTest/2020-01-15 BackTest DAD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-32268.67317223</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-33270.71717223</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>196.8</v>
@@ -521,9 +521,11 @@
         <v>-34964.28367223</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>195.6</v>
+      </c>
       <c r="J4" t="n">
         <v>196.8</v>
       </c>
@@ -560,7 +562,7 @@
         <v>-35485.99857223</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>195.5</v>
@@ -601,7 +603,7 @@
         <v>-35198.13857223</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>195.2</v>
@@ -642,7 +644,7 @@
         <v>-35198.13857223</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>198.8</v>
@@ -683,7 +685,7 @@
         <v>-35198.13857223</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>198.8</v>
@@ -724,7 +726,7 @@
         <v>-33950.16007223</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>198.8</v>
@@ -765,7 +767,7 @@
         <v>-33689.16007223</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>199</v>
@@ -806,7 +808,7 @@
         <v>-30157.16007223</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>199.3</v>
@@ -847,9 +849,11 @@
         <v>-30157.16007223</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>201</v>
+      </c>
       <c r="J12" t="n">
         <v>196.8</v>
       </c>
@@ -886,9 +890,11 @@
         <v>-25603.96897223</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>201</v>
+      </c>
       <c r="J13" t="n">
         <v>196.8</v>
       </c>
@@ -925,9 +931,11 @@
         <v>-25603.96897223</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>203.2</v>
+      </c>
       <c r="J14" t="n">
         <v>196.8</v>
       </c>
@@ -964,7 +972,7 @@
         <v>-25603.96897223</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>203.2</v>
@@ -1005,11 +1013,9 @@
         <v>-57404.78627223</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>203.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>196.8</v>
       </c>
@@ -1046,11 +1052,9 @@
         <v>-57401.02727223</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>201</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>196.8</v>
       </c>
@@ -1087,9 +1091,11 @@
         <v>-57401.02727223</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>203</v>
+      </c>
       <c r="J18" t="n">
         <v>196.8</v>
       </c>
@@ -1126,9 +1132,11 @@
         <v>-57401.02727223</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>203</v>
+      </c>
       <c r="J19" t="n">
         <v>196.8</v>
       </c>
@@ -1165,9 +1173,11 @@
         <v>-57401.02727223</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>203</v>
+      </c>
       <c r="J20" t="n">
         <v>196.8</v>
       </c>
@@ -1204,9 +1214,11 @@
         <v>-57471.94157223</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>203</v>
+      </c>
       <c r="J21" t="n">
         <v>196.8</v>
       </c>
@@ -1243,9 +1255,11 @@
         <v>-57471.94157223</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>201</v>
+      </c>
       <c r="J22" t="n">
         <v>196.8</v>
       </c>
@@ -1282,9 +1296,11 @@
         <v>-57471.94157223</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>201</v>
+      </c>
       <c r="J23" t="n">
         <v>196.8</v>
       </c>
@@ -1321,9 +1337,11 @@
         <v>-57466.94157223</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>201</v>
+      </c>
       <c r="J24" t="n">
         <v>196.8</v>
       </c>
@@ -1360,9 +1378,11 @@
         <v>-57466.94157223</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>202.9</v>
+      </c>
       <c r="J25" t="n">
         <v>196.8</v>
       </c>
@@ -1399,9 +1419,11 @@
         <v>-57466.94157223</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>202.9</v>
+      </c>
       <c r="J26" t="n">
         <v>196.8</v>
       </c>
@@ -1438,7 +1460,7 @@
         <v>-57984.07487223</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>202.9</v>
@@ -1479,9 +1501,11 @@
         <v>-57984.07487223</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>201</v>
+      </c>
       <c r="J28" t="n">
         <v>196.8</v>
       </c>
@@ -1518,7 +1542,7 @@
         <v>-66286.46777223</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>201</v>
@@ -1559,9 +1583,11 @@
         <v>-34305.45127223</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>200</v>
+      </c>
       <c r="J30" t="n">
         <v>196.8</v>
       </c>
@@ -1598,9 +1624,11 @@
         <v>-34305.45127223</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>202</v>
+      </c>
       <c r="J31" t="n">
         <v>196.8</v>
       </c>
@@ -1871,9 +1899,11 @@
         <v>-36806.16677223</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>200</v>
+      </c>
       <c r="J38" t="n">
         <v>196.8</v>
       </c>
@@ -1910,9 +1940,11 @@
         <v>-39728.42467222999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>200</v>
+      </c>
       <c r="J39" t="n">
         <v>196.8</v>
       </c>
@@ -1949,9 +1981,11 @@
         <v>-38698.42467222999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>199.4</v>
+      </c>
       <c r="J40" t="n">
         <v>196.8</v>
       </c>
@@ -1988,9 +2022,11 @@
         <v>-34456.29847223</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>201.2</v>
+      </c>
       <c r="J41" t="n">
         <v>196.8</v>
       </c>
@@ -2027,9 +2063,11 @@
         <v>-35131.74077223</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>202.6</v>
+      </c>
       <c r="J42" t="n">
         <v>196.8</v>
       </c>
@@ -2222,9 +2260,11 @@
         <v>-30942.69657223</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>202.9</v>
+      </c>
       <c r="J47" t="n">
         <v>196.8</v>
       </c>
@@ -2261,9 +2301,11 @@
         <v>2351.469627770002</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>202.9</v>
+      </c>
       <c r="J48" t="n">
         <v>196.8</v>
       </c>
@@ -3197,7 +3239,7 @@
         <v>219955.244979499</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
@@ -3275,7 +3317,7 @@
         <v>226079.773079499</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
@@ -3353,7 +3395,7 @@
         <v>255465.218979499</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
@@ -3431,7 +3473,7 @@
         <v>242943.142779499</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
@@ -4718,7 +4760,7 @@
         <v>292314.750979499</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
@@ -4726,13 +4768,15 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>1.062073170731707</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1.006649616368287</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4760,14 +4804,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4799,14 +4837,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4838,14 +4870,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4877,14 +4903,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4916,14 +4936,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4955,14 +4969,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4994,14 +5002,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5030,17 +5032,11 @@
         <v>279335.401179499</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5072,14 +5068,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5108,17 +5098,11 @@
         <v>253904.918679499</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5150,14 +5134,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5189,14 +5167,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5228,14 +5200,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5267,14 +5233,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5306,14 +5266,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5345,14 +5299,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5384,14 +5332,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5423,14 +5365,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5462,14 +5398,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5501,14 +5431,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5540,14 +5464,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5579,14 +5497,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5618,14 +5530,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5657,14 +5563,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5696,14 +5596,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5735,14 +5629,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5774,14 +5662,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5813,14 +5695,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5852,14 +5728,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5891,14 +5761,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5930,14 +5794,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5969,14 +5827,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6008,14 +5860,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6047,14 +5893,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6086,14 +5926,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6125,14 +5959,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6164,14 +5992,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6203,14 +6025,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6242,14 +6058,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6281,14 +6091,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6320,14 +6124,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6359,14 +6157,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6398,14 +6190,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6437,14 +6223,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6476,14 +6256,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6515,14 +6289,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6554,14 +6322,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6593,14 +6355,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6632,14 +6388,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6671,14 +6421,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6710,14 +6454,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6749,14 +6487,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6788,14 +6520,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6827,14 +6553,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6866,14 +6586,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6905,14 +6619,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6944,14 +6652,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6983,14 +6685,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7022,14 +6718,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7061,14 +6751,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7100,14 +6784,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7139,14 +6817,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7178,14 +6850,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7217,14 +6883,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7256,14 +6916,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7295,14 +6949,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7334,14 +6982,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7373,14 +7015,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7412,14 +7048,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7451,14 +7081,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7490,14 +7114,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7529,14 +7147,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7568,14 +7180,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7607,14 +7213,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7646,14 +7246,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7685,14 +7279,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7724,14 +7312,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7763,14 +7345,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7802,14 +7378,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7841,14 +7411,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7880,14 +7444,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7919,14 +7477,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7958,14 +7510,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7997,14 +7543,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8036,14 +7576,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8075,14 +7609,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8114,14 +7642,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8153,14 +7675,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8192,14 +7708,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8231,14 +7741,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8270,14 +7774,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8309,14 +7807,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8348,14 +7840,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8387,14 +7873,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8426,14 +7906,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8465,14 +7939,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8504,14 +7972,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8543,14 +8005,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8582,14 +8038,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8621,14 +8071,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8660,14 +8104,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8699,14 +8137,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8738,14 +8170,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8777,14 +8203,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8816,14 +8236,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8855,14 +8269,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8894,14 +8302,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8933,14 +8335,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8972,14 +8368,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9011,14 +8401,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9050,14 +8434,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9089,14 +8467,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9128,14 +8500,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9167,14 +8533,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9206,14 +8566,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9245,14 +8599,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9284,14 +8632,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9323,14 +8665,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9362,14 +8698,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9401,14 +8731,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9440,14 +8764,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9479,14 +8797,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9518,14 +8830,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9554,15 +8860,15 @@
         <v>-101976.381620501</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>196.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>209.6</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L235" t="n">
@@ -9596,9 +8902,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>196.8</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9635,9 +8939,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>196.8</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9674,9 +8976,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>196.8</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9713,9 +9013,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>196.8</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9752,9 +9050,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>196.8</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9791,9 +9087,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>196.8</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9830,9 +9124,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>196.8</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9869,9 +9161,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>196.8</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9908,9 +9198,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>196.8</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9947,9 +9235,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>196.8</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9986,9 +9272,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>196.8</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10025,9 +9309,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>196.8</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10064,9 +9346,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>196.8</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10103,9 +9383,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>196.8</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10142,9 +9420,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>196.8</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10178,23 +9454,19 @@
         <v>-92689.31622050104</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>196.8</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L251" t="n">
-        <v>1.085447154471545</v>
-      </c>
-      <c r="M251" t="n">
-        <v>1.006649616368287</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10219,11 +9491,15 @@
         <v>-92590.18982050105</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10252,11 +9528,15 @@
         <v>-92600.46164883205</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10285,11 +9565,15 @@
         <v>-92620.46164883205</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10318,11 +9602,15 @@
         <v>-90189.04954883204</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10351,11 +9639,15 @@
         <v>-94321.24444883205</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10384,11 +9676,15 @@
         <v>-94321.24444883205</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10417,11 +9713,15 @@
         <v>-94611.24444883205</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10454,7 +9754,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10487,7 +9791,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10520,7 +9828,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10553,7 +9865,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10586,7 +9902,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10615,11 +9935,17 @@
         <v>-110161.0072488321</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>209.3</v>
+      </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10648,11 +9974,17 @@
         <v>-110139.2062488321</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>209.3</v>
+      </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10681,11 +10013,17 @@
         <v>-110178.6073488321</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>210.2</v>
+      </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10718,7 +10056,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10751,7 +10093,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10784,7 +10130,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10817,7 +10167,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10850,7 +10204,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10883,7 +10241,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10916,7 +10278,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10949,7 +10315,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10982,7 +10352,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11015,7 +10389,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11048,7 +10426,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11081,7 +10463,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11114,7 +10500,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11147,7 +10537,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11180,7 +10574,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11213,7 +10611,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11246,7 +10648,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11279,7 +10685,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11312,7 +10722,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11345,7 +10759,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11378,7 +10796,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11411,7 +10833,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11444,7 +10870,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11477,7 +10907,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11510,7 +10944,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11543,7 +10981,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11572,11 +11014,17 @@
         <v>-103413.049948832</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>210</v>
+      </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11609,7 +11057,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11642,7 +11094,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11675,7 +11131,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11708,7 +11168,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11741,7 +11205,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11774,7 +11242,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11807,7 +11279,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11840,7 +11316,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11873,7 +11353,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11906,7 +11390,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11939,7 +11427,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11972,7 +11464,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12005,7 +11501,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12038,7 +11538,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12071,7 +11575,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12104,7 +11612,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12137,7 +11649,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12170,7 +11686,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12203,7 +11723,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12236,7 +11760,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12269,7 +11797,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12302,7 +11834,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12335,7 +11871,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12368,7 +11908,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12401,7 +11945,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12434,7 +11982,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12467,7 +12019,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12500,7 +12056,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12533,7 +12093,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12566,7 +12130,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12599,7 +12167,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12632,7 +12204,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12665,7 +12241,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12698,7 +12278,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12731,7 +12315,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12764,7 +12352,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12797,7 +12389,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12830,7 +12426,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12863,7 +12463,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12896,7 +12500,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12929,7 +12537,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12962,7 +12574,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12991,11 +12607,15 @@
         <v>20528.84625362194</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13028,7 +12648,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13061,7 +12685,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13094,7 +12722,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13127,7 +12759,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13160,7 +12796,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13193,7 +12833,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13226,7 +12870,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13259,7 +12907,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13292,7 +12944,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13325,7 +12981,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13358,7 +13018,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13391,7 +13055,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13424,7 +13092,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13457,7 +13129,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13490,7 +13166,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13523,7 +13203,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13556,7 +13240,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13589,7 +13277,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13622,7 +13314,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13655,7 +13351,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13688,7 +13388,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13721,7 +13425,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13754,7 +13462,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13787,7 +13499,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13820,7 +13536,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13853,7 +13573,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13886,7 +13610,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13919,7 +13647,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13952,7 +13684,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13985,7 +13721,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14018,7 +13758,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14051,7 +13795,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14084,7 +13832,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14117,7 +13869,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14150,7 +13906,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14183,7 +13943,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14216,7 +13980,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14249,7 +14017,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14282,7 +14054,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14315,7 +14091,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14348,7 +14128,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14381,7 +14165,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14414,7 +14202,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14447,7 +14239,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14480,7 +14276,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14513,7 +14313,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14546,7 +14350,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14579,7 +14387,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14612,7 +14424,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14645,7 +14461,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14678,7 +14498,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14711,7 +14535,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14744,7 +14572,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14777,7 +14609,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14810,7 +14646,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14843,7 +14683,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14876,7 +14720,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14909,7 +14757,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14942,7 +14794,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14975,7 +14831,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15008,7 +14868,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15041,7 +14905,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15074,7 +14942,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15107,7 +14979,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15140,7 +15016,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15173,7 +15053,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15206,7 +15090,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15239,7 +15127,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15272,7 +15164,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15305,7 +15201,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15338,7 +15238,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15371,7 +15275,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15404,7 +15312,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15437,7 +15349,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15466,11 +15382,15 @@
         <v>17944.28087951694</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15503,7 +15423,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15536,7 +15460,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15569,7 +15497,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15602,7 +15534,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15635,7 +15571,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15668,7 +15608,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15701,7 +15645,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15734,7 +15682,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15767,7 +15719,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15800,7 +15756,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15833,7 +15793,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15866,7 +15830,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15899,7 +15867,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15932,7 +15904,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15965,7 +15941,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15998,7 +15978,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16031,7 +16015,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16064,7 +16052,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16097,7 +16089,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16130,7 +16126,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16159,11 +16159,15 @@
         <v>-38262.58552048306</v>
       </c>
       <c r="H432" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16196,7 +16200,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16229,7 +16237,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16262,7 +16274,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16295,7 +16311,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16328,7 +16348,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16361,7 +16385,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16394,7 +16422,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16427,7 +16459,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16460,7 +16496,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16493,7 +16533,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16526,7 +16570,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16559,7 +16607,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16592,7 +16644,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16625,7 +16681,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16658,7 +16718,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16691,7 +16755,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16724,7 +16792,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16757,7 +16829,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16790,7 +16866,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16819,11 +16899,15 @@
         <v>-35794.61252048305</v>
       </c>
       <c r="H452" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16856,7 +16940,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16889,7 +16977,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16922,7 +17014,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16955,7 +17051,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16988,7 +17088,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17021,7 +17125,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17054,7 +17162,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17087,7 +17199,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17120,7 +17236,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17153,7 +17273,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17186,7 +17310,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17219,7 +17347,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17252,7 +17384,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17285,7 +17421,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17318,7 +17458,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17351,7 +17495,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17384,7 +17532,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17417,7 +17569,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17450,7 +17606,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17483,7 +17643,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17512,11 +17676,15 @@
         <v>80016.04933842795</v>
       </c>
       <c r="H473" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17545,11 +17713,15 @@
         <v>68556.25813842795</v>
       </c>
       <c r="H474" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17578,11 +17750,15 @@
         <v>76802.18693842794</v>
       </c>
       <c r="H475" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17611,11 +17787,15 @@
         <v>87101.85273842794</v>
       </c>
       <c r="H476" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17644,11 +17824,15 @@
         <v>88925.73503842794</v>
       </c>
       <c r="H477" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17677,11 +17861,15 @@
         <v>87556.70833842794</v>
       </c>
       <c r="H478" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17710,11 +17898,15 @@
         <v>89460.72648437294</v>
       </c>
       <c r="H479" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17747,7 +17939,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17780,7 +17976,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17813,7 +18013,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17842,11 +18046,15 @@
         <v>78799.44603211293</v>
       </c>
       <c r="H483" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17879,7 +18087,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17912,7 +18124,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17941,11 +18157,15 @@
         <v>59088.85513211293</v>
       </c>
       <c r="H486" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17978,7 +18198,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18011,7 +18235,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18044,7 +18272,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18077,7 +18309,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18106,11 +18342,15 @@
         <v>58261.50863211293</v>
       </c>
       <c r="H491" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18139,11 +18379,15 @@
         <v>58042.89763211293</v>
       </c>
       <c r="H492" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18172,11 +18416,15 @@
         <v>58264.48513211293</v>
       </c>
       <c r="H493" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18205,11 +18453,15 @@
         <v>58264.48513211293</v>
       </c>
       <c r="H494" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18238,11 +18490,15 @@
         <v>58749.40293211293</v>
       </c>
       <c r="H495" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18275,7 +18531,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18308,7 +18568,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18341,7 +18605,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18374,7 +18642,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18407,7 +18679,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18440,7 +18716,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18473,7 +18753,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18502,11 +18786,15 @@
         <v>142021.3237793619</v>
       </c>
       <c r="H503" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18535,11 +18823,15 @@
         <v>140313.8971793619</v>
       </c>
       <c r="H504" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18568,11 +18860,15 @@
         <v>140318.8971793619</v>
       </c>
       <c r="H505" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18601,14 +18897,16 @@
         <v>139025.0694508859</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
-      <c r="L506" t="n">
-        <v>1</v>
-      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L506" t="inlineStr"/>
       <c r="M506" t="inlineStr"/>
     </row>
     <row r="507">
@@ -18634,7 +18932,7 @@
         <v>139025.0694508859</v>
       </c>
       <c r="H507" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18667,7 +18965,7 @@
         <v>139025.0694508859</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18700,7 +18998,7 @@
         <v>139025.0694508859</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18733,7 +19031,7 @@
         <v>138902.4184508859</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18766,7 +19064,7 @@
         <v>148572.0122508859</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18799,7 +19097,7 @@
         <v>135573.7335508859</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18832,7 +19130,7 @@
         <v>139264.8346508859</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18865,7 +19163,7 @@
         <v>138996.0731508859</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18898,7 +19196,7 @@
         <v>137338.3682508859</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18931,7 +19229,7 @@
         <v>96756.99835088593</v>
       </c>
       <c r="H516" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18964,7 +19262,7 @@
         <v>96756.99835088593</v>
       </c>
       <c r="H517" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18997,7 +19295,7 @@
         <v>96756.99835088593</v>
       </c>
       <c r="H518" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19030,7 +19328,7 @@
         <v>87328.95895088594</v>
       </c>
       <c r="H519" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19063,7 +19361,7 @@
         <v>74605.28375088594</v>
       </c>
       <c r="H520" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19096,7 +19394,7 @@
         <v>74605.28375088594</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19129,7 +19427,7 @@
         <v>70502.74315088594</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19162,7 +19460,7 @@
         <v>94628.37695088594</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19195,7 +19493,7 @@
         <v>77677.10965088595</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19228,7 +19526,7 @@
         <v>81435.32965088595</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19261,7 +19559,7 @@
         <v>81144.25185088595</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19294,7 +19592,7 @@
         <v>76293.77985088596</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19327,7 +19625,7 @@
         <v>111916.515050886</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19360,7 +19658,7 @@
         <v>111910.934250886</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19393,7 +19691,7 @@
         <v>111100.738550886</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19426,7 +19724,7 @@
         <v>111103.738550886</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19459,7 +19757,7 @@
         <v>105336.495650886</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19525,7 +19823,7 @@
         <v>81126.15735088597</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19558,7 +19856,7 @@
         <v>45063.47055088597</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19591,7 +19889,7 @@
         <v>48238.71755088597</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19624,7 +19922,7 @@
         <v>32066.66515088597</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19657,7 +19955,7 @@
         <v>34070.54425088597</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19690,7 +19988,7 @@
         <v>22353.96305088597</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19723,7 +20021,7 @@
         <v>52307.27215088597</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19756,7 +20054,7 @@
         <v>52339.08565088597</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19789,7 +20087,7 @@
         <v>52339.08565088597</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19822,7 +20120,7 @@
         <v>54216.49345088597</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20053,7 +20351,7 @@
         <v>55681.58525088596</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20845,7 +21143,7 @@
         <v>21366.36545088596</v>
       </c>
       <c r="H574" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -20944,7 +21242,7 @@
         <v>19365.53245088596</v>
       </c>
       <c r="H577" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -21637,7 +21935,7 @@
         <v>44465.13045088597</v>
       </c>
       <c r="H598" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -21703,7 +22001,7 @@
         <v>42265.01805088596</v>
       </c>
       <c r="H600" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -21912,6 +22210,6 @@
       <c r="M606" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest DAD.xlsx
+++ b/BackTest/2020-01-15 BackTest DAD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-32268.67317223</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-33270.71717223</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>196.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -527,13 +523,9 @@
         <v>195.6</v>
       </c>
       <c r="J4" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>195.6</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -568,7 +560,7 @@
         <v>195.5</v>
       </c>
       <c r="J5" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -609,7 +601,7 @@
         <v>195.2</v>
       </c>
       <c r="J6" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -650,7 +642,7 @@
         <v>198.8</v>
       </c>
       <c r="J7" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -691,7 +683,7 @@
         <v>198.8</v>
       </c>
       <c r="J8" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -732,7 +724,7 @@
         <v>198.8</v>
       </c>
       <c r="J9" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -767,13 +759,11 @@
         <v>-33689.16007223</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>199</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -808,13 +798,11 @@
         <v>-30157.16007223</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>199.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -849,13 +837,11 @@
         <v>-30157.16007223</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>201</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -890,13 +876,11 @@
         <v>-25603.96897223</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>201</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -931,13 +915,11 @@
         <v>-25603.96897223</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>203.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -972,13 +954,11 @@
         <v>-25603.96897223</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>203.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1017,7 +997,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1056,7 +1036,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1091,13 +1071,11 @@
         <v>-57401.02727223</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>203</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1132,13 +1110,11 @@
         <v>-57401.02727223</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>203</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1173,13 +1149,11 @@
         <v>-57401.02727223</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>203</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1214,13 +1188,11 @@
         <v>-57471.94157223</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>203</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1255,13 +1227,11 @@
         <v>-57471.94157223</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>201</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1296,13 +1266,11 @@
         <v>-57471.94157223</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>201</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1337,13 +1305,11 @@
         <v>-57466.94157223</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>201</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1378,13 +1344,11 @@
         <v>-57466.94157223</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>202.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1419,13 +1383,11 @@
         <v>-57466.94157223</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>202.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1460,13 +1422,11 @@
         <v>-57984.07487223</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>202.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1501,13 +1461,11 @@
         <v>-57984.07487223</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>201</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1542,13 +1500,11 @@
         <v>-66286.46777223</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>201</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1583,13 +1539,11 @@
         <v>-34305.45127223</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1624,13 +1578,11 @@
         <v>-34305.45127223</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>202</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1669,7 +1621,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1708,7 +1660,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1747,7 +1699,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1786,7 +1738,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1825,7 +1777,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1864,7 +1816,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1899,13 +1851,11 @@
         <v>-36806.16677223</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1940,13 +1890,11 @@
         <v>-39728.42467222999</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1981,13 +1929,11 @@
         <v>-38698.42467222999</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>199.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -2022,13 +1968,11 @@
         <v>-34456.29847223</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>201.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2063,13 +2007,11 @@
         <v>-35131.74077223</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>202.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2108,7 +2050,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2147,7 +2089,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2186,7 +2128,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2225,7 +2167,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2260,13 +2202,11 @@
         <v>-30942.69657223</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>202.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2301,13 +2241,11 @@
         <v>2351.469627770002</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>202.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2346,7 +2284,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2385,7 +2323,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2424,7 +2362,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2463,7 +2401,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2502,7 +2440,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2541,7 +2479,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2580,7 +2518,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2619,7 +2557,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2658,7 +2596,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2697,7 +2635,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2736,7 +2674,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2775,7 +2713,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2814,7 +2752,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2853,7 +2791,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2892,7 +2830,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2931,7 +2869,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2970,7 +2908,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -3009,7 +2947,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -3048,7 +2986,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3087,7 +3025,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3126,7 +3064,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3165,7 +3103,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3200,21 +3138,23 @@
         <v>235553.479179499</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>196.8</v>
+        <v>195.6</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>1.104406952965235</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1.006649616368287</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3239,17 +3179,11 @@
         <v>219955.244979499</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3278,17 +3212,11 @@
         <v>230383.909579499</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3317,17 +3245,11 @@
         <v>226079.773079499</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3356,17 +3278,11 @@
         <v>213964.510179499</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3395,17 +3311,11 @@
         <v>255465.218979499</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3434,17 +3344,11 @@
         <v>245739.549879499</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3473,17 +3377,11 @@
         <v>242943.142779499</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3512,17 +3410,11 @@
         <v>257269.982179499</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3551,17 +3443,11 @@
         <v>250302.815179499</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3590,17 +3476,11 @@
         <v>258941.860579499</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3629,17 +3509,11 @@
         <v>258178.361979499</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3668,17 +3542,11 @@
         <v>259956.588379499</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3707,17 +3575,11 @@
         <v>259928.025979499</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3746,17 +3608,11 @@
         <v>269265.655579499</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3785,17 +3641,11 @@
         <v>273491.032679499</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3824,17 +3674,11 @@
         <v>290504.848979499</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3863,17 +3707,11 @@
         <v>292726.804579499</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3902,17 +3740,11 @@
         <v>262406.017979499</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3941,17 +3773,11 @@
         <v>257831.354679499</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3980,17 +3806,11 @@
         <v>241577.961479499</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4022,14 +3842,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4058,17 +3872,11 @@
         <v>254719.244679499</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4097,17 +3905,11 @@
         <v>252163.233479499</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4136,17 +3938,11 @@
         <v>252163.233479499</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4175,17 +3971,11 @@
         <v>245217.328679499</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4214,17 +4004,11 @@
         <v>234177.282179499</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4253,17 +4037,11 @@
         <v>230903.204879499</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4292,17 +4070,11 @@
         <v>226114.907179499</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4331,17 +4103,11 @@
         <v>279720.879279499</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4373,14 +4139,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4409,17 +4169,11 @@
         <v>274993.365679499</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4451,14 +4205,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4490,14 +4238,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4529,14 +4271,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4568,14 +4304,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4607,14 +4337,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4646,14 +4370,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4685,14 +4403,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4724,14 +4436,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4760,23 +4466,15 @@
         <v>292314.750979499</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
-        <v>1.062073170731707</v>
-      </c>
-      <c r="M111" t="n">
-        <v>1.006649616368287</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5032,7 +4730,7 @@
         <v>279335.401179499</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -5098,7 +4796,7 @@
         <v>253904.918679499</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -8860,17 +8558,11 @@
         <v>-101976.381620501</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>209.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8903,11 +8595,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8940,11 +8628,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8977,11 +8661,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9014,11 +8694,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9051,11 +8727,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9088,11 +8760,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9125,11 +8793,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9162,11 +8826,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9199,11 +8859,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9232,15 +8888,15 @@
         <v>-91343.96972050103</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>213</v>
+      </c>
+      <c r="J245" t="n">
+        <v>213</v>
+      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9269,13 +8925,17 @@
         <v>-81611.83442050104</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>213</v>
+      </c>
+      <c r="J246" t="n">
+        <v>213</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L246" t="n">
@@ -9309,7 +8969,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>213</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9346,7 +9008,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>213</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9383,7 +9047,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>213</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9420,7 +9086,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>213</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9457,7 +9125,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>213</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9491,10 +9161,14 @@
         <v>-92590.18982050105</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>214.6</v>
+      </c>
+      <c r="J252" t="n">
+        <v>213</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9531,7 +9205,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>213</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9568,7 +9244,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>213</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9605,7 +9283,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>213</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9642,7 +9322,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>213</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9679,7 +9361,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>213</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9716,7 +9400,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>213</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9753,7 +9439,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>213</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9790,7 +9478,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>213</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9827,7 +9517,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>213</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9864,7 +9556,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>213</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9898,10 +9592,14 @@
         <v>-110161.0072488321</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>209.1</v>
+      </c>
+      <c r="J263" t="n">
+        <v>213</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9935,12 +9633,12 @@
         <v>-110161.0072488321</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>209.3</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>213</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9974,12 +9672,12 @@
         <v>-110139.2062488321</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>209.3</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>213</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10013,12 +9711,12 @@
         <v>-110178.6073488321</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>210.2</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>213</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10055,7 +9753,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>213</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10092,7 +9792,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>213</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10129,7 +9831,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>213</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10166,7 +9870,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>213</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10203,7 +9909,9 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>213</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10240,7 +9948,9 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>213</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10277,7 +9987,9 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>213</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10314,7 +10026,9 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>213</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10351,7 +10065,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>213</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10388,7 +10104,9 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>213</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10425,7 +10143,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>213</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10462,7 +10182,9 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>213</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10499,7 +10221,9 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>213</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10536,7 +10260,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>213</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10573,7 +10299,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>213</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10610,7 +10338,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>213</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10647,7 +10377,9 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>213</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10684,7 +10416,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>213</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10721,7 +10455,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>213</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10758,7 +10494,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>213</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10795,7 +10533,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>213</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10832,7 +10572,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>213</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10869,7 +10611,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>213</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10906,7 +10650,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>213</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10943,7 +10689,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>213</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10980,7 +10728,9 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>213</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11014,12 +10764,12 @@
         <v>-103413.049948832</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>210</v>
-      </c>
-      <c r="J293" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>213</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11056,7 +10806,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>213</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11093,7 +10845,9 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>213</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11130,7 +10884,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>213</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11167,7 +10923,9 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>213</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11201,10 +10959,14 @@
         <v>-106937.031848832</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>212.1</v>
+      </c>
+      <c r="J298" t="n">
+        <v>213</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11238,10 +11000,14 @@
         <v>-104230.852348832</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>212</v>
+      </c>
+      <c r="J299" t="n">
+        <v>213</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11278,7 +11044,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>213</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11315,7 +11083,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>213</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11352,7 +11122,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>213</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11389,7 +11161,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>213</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11426,7 +11200,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>213</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11463,7 +11239,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>213</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11500,7 +11278,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>213</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11537,7 +11317,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>213</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11574,7 +11356,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>213</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11611,7 +11395,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>213</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11648,7 +11434,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>213</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11685,7 +11473,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>213</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11722,7 +11512,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>213</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11759,7 +11551,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>213</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11796,7 +11590,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>213</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11833,7 +11629,9 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>213</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11870,7 +11668,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>213</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11907,7 +11707,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>213</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11944,7 +11746,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>213</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11981,7 +11785,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>213</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12018,7 +11824,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>213</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12055,7 +11863,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>213</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12092,7 +11902,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>213</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12129,7 +11941,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>213</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12166,7 +11980,9 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>213</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12203,7 +12019,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>213</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12240,7 +12058,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>213</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12277,7 +12097,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>213</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12314,7 +12136,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>213</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12351,7 +12175,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>213</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12388,7 +12214,9 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>213</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12425,7 +12253,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>213</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12462,7 +12292,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>213</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12499,7 +12331,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>213</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12536,7 +12370,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>213</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12573,7 +12409,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>213</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12610,7 +12448,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>213</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12647,7 +12487,9 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>213</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12684,7 +12526,9 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>213</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12721,7 +12565,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>213</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12758,7 +12604,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>213</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12795,7 +12643,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>213</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12832,7 +12682,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>213</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12869,7 +12721,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>213</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12906,7 +12760,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>213</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12943,7 +12799,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>213</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12980,7 +12838,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>213</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13017,7 +12877,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>213</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13054,7 +12916,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>213</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13091,7 +12955,9 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>213</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13128,7 +12994,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>213</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13165,7 +13033,9 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>213</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13202,7 +13072,9 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>213</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13239,7 +13111,9 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>213</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13276,7 +13150,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>213</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13313,7 +13189,9 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>213</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13350,7 +13228,9 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>213</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13387,7 +13267,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>213</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13424,7 +13306,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>213</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13461,7 +13345,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>213</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13498,7 +13384,9 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>213</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13535,7 +13423,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>213</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13572,7 +13462,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>213</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13609,7 +13501,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>213</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13646,7 +13540,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>213</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13683,7 +13579,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>213</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13720,7 +13618,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>213</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13757,7 +13657,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>213</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13794,7 +13696,9 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>213</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13831,7 +13735,9 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>213</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13868,7 +13774,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>213</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13905,7 +13813,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>213</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13942,7 +13852,9 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>213</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13979,7 +13891,9 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>213</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14016,7 +13930,9 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>213</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14053,7 +13969,9 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>213</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14090,7 +14008,9 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>213</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14127,7 +14047,9 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>213</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14164,7 +14086,9 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>213</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14201,7 +14125,9 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>213</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14238,7 +14164,9 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>213</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14275,7 +14203,9 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>213</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14312,7 +14242,9 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>213</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14349,7 +14281,9 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>213</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14386,7 +14320,9 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>213</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14423,7 +14359,9 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>213</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14460,7 +14398,9 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>213</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14497,7 +14437,9 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>213</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14534,7 +14476,9 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>213</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14571,7 +14515,9 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>213</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14608,7 +14554,9 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>213</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14645,7 +14593,9 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>213</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14682,7 +14632,9 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>213</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14719,7 +14671,9 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>213</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14756,7 +14710,9 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>213</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14793,7 +14749,9 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>213</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14830,7 +14788,9 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>213</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14867,7 +14827,9 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>213</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14904,7 +14866,9 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>213</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14941,7 +14905,9 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>213</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14978,7 +14944,9 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>213</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15015,7 +14983,9 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>213</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15052,7 +15022,9 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>213</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15089,7 +15061,9 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>213</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15126,7 +15100,9 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>213</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15163,7 +15139,9 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>213</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15200,7 +15178,9 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>213</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15237,7 +15217,9 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>213</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15274,7 +15256,9 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>213</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15311,7 +15295,9 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>213</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15348,7 +15334,9 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>213</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15385,7 +15373,9 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>213</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15422,7 +15412,9 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>213</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15459,7 +15451,9 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>213</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15496,7 +15490,9 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>213</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15533,7 +15529,9 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>213</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15570,7 +15568,9 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>213</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15607,7 +15607,9 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>213</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15644,7 +15646,9 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>213</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15681,7 +15685,9 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>213</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15718,7 +15724,9 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>213</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15755,7 +15763,9 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>213</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15792,7 +15802,9 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>213</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15829,7 +15841,9 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>213</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15866,7 +15880,9 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>213</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15903,7 +15919,9 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>213</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15940,7 +15958,9 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>213</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15977,7 +15997,9 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>213</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16014,7 +16036,9 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>213</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16051,7 +16075,9 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>213</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16088,7 +16114,9 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>213</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16125,7 +16153,9 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>213</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16162,7 +16192,9 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>213</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16199,7 +16231,9 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>213</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16236,7 +16270,9 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>213</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16273,7 +16309,9 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>213</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16310,7 +16348,9 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>213</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16347,7 +16387,9 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>213</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16384,7 +16426,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>213</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16421,7 +16465,9 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>213</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16458,7 +16504,9 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>213</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16495,7 +16543,9 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>213</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16532,7 +16582,9 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>213</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16569,7 +16621,9 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>213</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16606,7 +16660,9 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>213</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16643,7 +16699,9 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>213</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16680,7 +16738,9 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>213</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16717,7 +16777,9 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>213</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16754,7 +16816,9 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>213</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16791,7 +16855,9 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>213</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16828,7 +16894,9 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>213</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16865,7 +16933,9 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>213</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16902,7 +16972,9 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>213</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16939,7 +17011,9 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>213</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16976,7 +17050,9 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>213</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17013,7 +17089,9 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>213</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17050,7 +17128,9 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>213</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17087,7 +17167,9 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>213</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17124,7 +17206,9 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>213</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17161,7 +17245,9 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>213</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17198,7 +17284,9 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>213</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17235,7 +17323,9 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>213</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17272,7 +17362,9 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>213</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17309,7 +17401,9 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>213</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17346,7 +17440,9 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>213</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17383,7 +17479,9 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>213</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17420,7 +17518,9 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>213</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17457,7 +17557,9 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>213</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17494,7 +17596,9 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>213</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17531,7 +17635,9 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>213</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17568,7 +17674,9 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>213</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17605,7 +17713,9 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>213</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17642,7 +17752,9 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>213</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17679,7 +17791,9 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>213</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17716,7 +17830,9 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>213</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17753,7 +17869,9 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>213</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17790,7 +17908,9 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>213</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17827,7 +17947,9 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>213</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17864,7 +17986,9 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>213</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17901,7 +18025,9 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>213</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17938,7 +18064,9 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>213</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17975,7 +18103,9 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>213</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18012,7 +18142,9 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>213</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18049,7 +18181,9 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>213</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18086,7 +18220,9 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>213</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18123,7 +18259,9 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>213</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18160,7 +18298,9 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>213</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18197,7 +18337,9 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>213</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18234,7 +18376,9 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>213</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18271,7 +18415,9 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>213</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18308,7 +18454,9 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>213</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18345,7 +18493,9 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>213</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18382,7 +18532,9 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>213</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18419,7 +18571,9 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>213</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18456,7 +18610,9 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>213</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18493,7 +18649,9 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>213</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18530,7 +18688,9 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>213</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18567,7 +18727,9 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>213</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18604,7 +18766,9 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>213</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18641,7 +18805,9 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>213</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18678,7 +18844,9 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>213</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18715,7 +18883,9 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>213</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18752,7 +18922,9 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>213</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18789,7 +18961,9 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>213</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18826,7 +19000,9 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>213</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18863,7 +19039,9 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>213</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18897,16 +19075,20 @@
         <v>139025.0694508859</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>213</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L506" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L506" t="n">
+        <v>1</v>
+      </c>
       <c r="M506" t="inlineStr"/>
     </row>
     <row r="507">
@@ -18932,11 +19114,17 @@
         <v>139025.0694508859</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>213</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18965,11 +19153,17 @@
         <v>139025.0694508859</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>213</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18998,11 +19192,17 @@
         <v>139025.0694508859</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>213</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19031,11 +19231,17 @@
         <v>138902.4184508859</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>213</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19064,11 +19270,17 @@
         <v>148572.0122508859</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>213</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19097,11 +19309,17 @@
         <v>135573.7335508859</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>213</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19130,11 +19348,17 @@
         <v>139264.8346508859</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>213</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19163,11 +19387,17 @@
         <v>138996.0731508859</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>213</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19196,11 +19426,17 @@
         <v>137338.3682508859</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>213</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19229,11 +19465,17 @@
         <v>96756.99835088593</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>213</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19262,11 +19504,17 @@
         <v>96756.99835088593</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>213</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19295,11 +19543,17 @@
         <v>96756.99835088593</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>213</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19328,11 +19582,17 @@
         <v>87328.95895088594</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>213</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19361,11 +19621,17 @@
         <v>74605.28375088594</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>213</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19394,11 +19660,17 @@
         <v>74605.28375088594</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>213</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19427,11 +19699,17 @@
         <v>70502.74315088594</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>213</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19460,11 +19738,17 @@
         <v>94628.37695088594</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>213</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19493,11 +19777,17 @@
         <v>77677.10965088595</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>213</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19526,11 +19816,17 @@
         <v>81435.32965088595</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>213</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19559,11 +19855,17 @@
         <v>81144.25185088595</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>213</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19592,11 +19894,17 @@
         <v>76293.77985088596</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>213</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19625,11 +19933,17 @@
         <v>111916.515050886</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>213</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19658,11 +19972,17 @@
         <v>111910.934250886</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>213</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19691,11 +20011,17 @@
         <v>111100.738550886</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>213</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19724,11 +20050,17 @@
         <v>111103.738550886</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>213</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19757,11 +20089,17 @@
         <v>105336.495650886</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>213</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19793,8 +20131,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>213</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19823,11 +20167,17 @@
         <v>81126.15735088597</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>213</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19856,11 +20206,17 @@
         <v>45063.47055088597</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>213</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19889,11 +20245,17 @@
         <v>48238.71755088597</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>213</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19922,11 +20284,17 @@
         <v>32066.66515088597</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>213</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19955,11 +20323,17 @@
         <v>34070.54425088597</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>213</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19988,11 +20362,17 @@
         <v>22353.96305088597</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>213</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -20021,11 +20401,17 @@
         <v>52307.27215088597</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>213</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -20054,11 +20440,17 @@
         <v>52339.08565088597</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>213</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -20087,11 +20479,17 @@
         <v>52339.08565088597</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>213</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -20120,11 +20518,17 @@
         <v>54216.49345088597</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>213</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -20156,8 +20560,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>213</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -20189,8 +20599,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>213</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20222,8 +20638,14 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>213</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20255,8 +20677,14 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>213</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20288,8 +20716,14 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>213</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20321,8 +20755,14 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>213</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -20351,11 +20791,17 @@
         <v>55681.58525088596</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>213</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -20387,8 +20833,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>213</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -20420,8 +20872,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>213</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -20453,8 +20911,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>213</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -20486,8 +20950,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>213</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -20519,8 +20989,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>213</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -20552,8 +21028,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>213</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -20585,8 +21067,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>213</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -20618,8 +21106,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>213</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -20651,8 +21145,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>213</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -20684,8 +21184,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>213</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -20717,8 +21223,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>213</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -20750,8 +21262,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>213</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -20783,8 +21301,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>213</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20816,8 +21340,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>213</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20849,8 +21379,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>213</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20882,8 +21418,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>213</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20915,8 +21457,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>213</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20948,8 +21496,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>213</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20981,8 +21535,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>213</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -21014,8 +21574,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>213</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -21047,8 +21613,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>213</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -21080,8 +21652,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>213</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -21113,8 +21691,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>213</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -21146,8 +21730,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>213</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -21179,8 +21769,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>213</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -21212,8 +21808,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>213</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -21245,8 +21847,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>213</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -21278,8 +21886,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>213</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -21311,8 +21925,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>213</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -21344,8 +21964,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>213</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -21377,8 +22003,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>213</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -21410,8 +22042,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>213</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -21443,8 +22081,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>213</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -21476,8 +22120,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>213</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -21509,8 +22159,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>213</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -21542,8 +22198,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>213</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -21575,8 +22237,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>213</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -21608,8 +22276,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>213</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -21641,8 +22315,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>213</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -21674,8 +22354,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>213</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -21707,8 +22393,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>213</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -21740,8 +22432,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>213</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21773,8 +22471,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>213</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21806,8 +22510,14 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>213</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21839,8 +22549,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>213</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21872,8 +22588,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>213</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21905,8 +22627,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>213</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21938,8 +22666,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>213</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21971,8 +22705,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>213</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -22004,8 +22744,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>213</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -22037,8 +22783,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>213</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -22070,8 +22822,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>213</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -22103,8 +22861,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>213</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -22136,8 +22900,14 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>213</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -22169,8 +22939,14 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>213</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -22202,14 +22978,20 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>213</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
       <c r="M606" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest DAD.xlsx
+++ b/BackTest/2020-01-15 BackTest DAD.xlsx
@@ -484,10 +484,14 @@
         <v>-33270.71717223</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>196.8</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -523,9 +527,13 @@
         <v>195.6</v>
       </c>
       <c r="J4" t="n">
-        <v>195.6</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
+        <v>196.8</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -560,7 +568,7 @@
         <v>195.5</v>
       </c>
       <c r="J5" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -601,7 +609,7 @@
         <v>195.2</v>
       </c>
       <c r="J6" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -642,7 +650,7 @@
         <v>198.8</v>
       </c>
       <c r="J7" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -683,7 +691,7 @@
         <v>198.8</v>
       </c>
       <c r="J8" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -724,7 +732,7 @@
         <v>198.8</v>
       </c>
       <c r="J9" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -759,11 +767,13 @@
         <v>-33689.16007223</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>199</v>
+      </c>
       <c r="J10" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -798,11 +808,13 @@
         <v>-30157.16007223</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>199.3</v>
+      </c>
       <c r="J11" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -837,11 +849,13 @@
         <v>-30157.16007223</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>201</v>
+      </c>
       <c r="J12" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -876,11 +890,13 @@
         <v>-25603.96897223</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>201</v>
+      </c>
       <c r="J13" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -915,11 +931,13 @@
         <v>-25603.96897223</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>203.2</v>
+      </c>
       <c r="J14" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -958,7 +976,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -997,7 +1015,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1036,7 +1054,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1075,7 +1093,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1114,7 +1132,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1153,7 +1171,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1192,7 +1210,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1227,11 +1245,13 @@
         <v>-57471.94157223</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>201</v>
+      </c>
       <c r="J22" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1266,11 +1286,13 @@
         <v>-57471.94157223</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>201</v>
+      </c>
       <c r="J23" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1309,7 +1331,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1348,7 +1370,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1387,7 +1409,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1426,7 +1448,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1461,11 +1483,13 @@
         <v>-57984.07487223</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>201</v>
+      </c>
       <c r="J28" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1500,11 +1524,13 @@
         <v>-66286.46777223</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>201</v>
+      </c>
       <c r="J29" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1539,11 +1565,13 @@
         <v>-34305.45127223</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>200</v>
+      </c>
       <c r="J30" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1582,7 +1610,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1621,7 +1649,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1660,7 +1688,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1699,7 +1727,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1738,7 +1766,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1777,7 +1805,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1816,7 +1844,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1855,7 +1883,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1894,7 +1922,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1933,7 +1961,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1972,7 +2000,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2011,7 +2039,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2050,7 +2078,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2089,7 +2117,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2128,7 +2156,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2167,7 +2195,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2206,7 +2234,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2245,7 +2273,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2284,7 +2312,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2323,7 +2351,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2362,7 +2390,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2401,7 +2429,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2440,7 +2468,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2479,7 +2507,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2518,7 +2546,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2557,7 +2585,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2596,7 +2624,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2635,7 +2663,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2674,7 +2702,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2713,7 +2741,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2752,7 +2780,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2791,7 +2819,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2830,7 +2858,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2869,7 +2897,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2908,7 +2936,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2947,7 +2975,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2986,7 +3014,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3025,7 +3053,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3064,7 +3092,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3103,7 +3131,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3138,23 +3166,21 @@
         <v>235553.479179499</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>195.6</v>
+        <v>196.8</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.104406952965235</v>
-      </c>
-      <c r="M71" t="n">
-        <v>1.006649616368287</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3179,11 +3205,17 @@
         <v>219955.244979499</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3212,11 +3244,17 @@
         <v>230383.909579499</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3245,11 +3283,17 @@
         <v>226079.773079499</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3278,11 +3322,17 @@
         <v>213964.510179499</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3311,11 +3361,17 @@
         <v>255465.218979499</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3344,11 +3400,17 @@
         <v>245739.549879499</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3377,11 +3439,17 @@
         <v>242943.142779499</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3410,11 +3478,17 @@
         <v>257269.982179499</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3443,11 +3517,17 @@
         <v>250302.815179499</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3476,11 +3556,17 @@
         <v>258941.860579499</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3509,11 +3595,17 @@
         <v>258178.361979499</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3542,11 +3634,17 @@
         <v>259956.588379499</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3575,11 +3673,17 @@
         <v>259928.025979499</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3608,11 +3712,17 @@
         <v>269265.655579499</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3641,11 +3751,17 @@
         <v>273491.032679499</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3674,11 +3790,17 @@
         <v>290504.848979499</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3707,11 +3829,17 @@
         <v>292726.804579499</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3740,11 +3868,17 @@
         <v>262406.017979499</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3773,11 +3907,17 @@
         <v>257831.354679499</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3806,11 +3946,17 @@
         <v>241577.961479499</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3842,8 +3988,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3872,11 +4024,17 @@
         <v>254719.244679499</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3905,11 +4063,17 @@
         <v>252163.233479499</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3938,11 +4102,17 @@
         <v>252163.233479499</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3971,11 +4141,17 @@
         <v>245217.328679499</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4004,11 +4180,17 @@
         <v>234177.282179499</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4037,11 +4219,17 @@
         <v>230903.204879499</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4070,11 +4258,17 @@
         <v>226114.907179499</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4103,11 +4297,17 @@
         <v>279720.879279499</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4139,8 +4339,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4169,11 +4375,17 @@
         <v>274993.365679499</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4205,8 +4417,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4238,8 +4456,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4271,8 +4495,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4304,8 +4534,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4337,8 +4573,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4370,8 +4612,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4403,8 +4651,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4436,8 +4690,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4469,8 +4729,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4502,8 +4768,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4535,8 +4807,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4568,8 +4846,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4601,8 +4885,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4634,8 +4924,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4667,8 +4963,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4700,8 +5002,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4733,8 +5041,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4766,8 +5080,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4799,8 +5119,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4832,8 +5158,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4865,8 +5197,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4898,8 +5236,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4931,8 +5275,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4964,8 +5314,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4997,8 +5353,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5030,8 +5392,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5063,8 +5431,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5096,8 +5470,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5129,8 +5509,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5162,8 +5548,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5195,8 +5587,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5228,8 +5626,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5261,8 +5665,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5294,8 +5704,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5327,8 +5743,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5360,8 +5782,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5393,8 +5821,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5426,8 +5860,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5459,8 +5899,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5492,8 +5938,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5525,8 +5977,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5558,8 +6016,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5591,8 +6055,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5624,8 +6094,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5657,8 +6133,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5690,8 +6172,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5723,8 +6211,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5756,8 +6250,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5789,8 +6289,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5822,8 +6328,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5855,8 +6367,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5888,8 +6406,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5921,8 +6445,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5954,8 +6484,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5987,8 +6523,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6020,8 +6562,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6053,8 +6601,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6086,8 +6640,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6119,8 +6679,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6152,8 +6718,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6185,8 +6757,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6218,8 +6796,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6251,8 +6835,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6284,8 +6874,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6317,8 +6913,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6350,8 +6952,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6383,8 +6991,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6416,8 +7030,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6449,8 +7069,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6482,8 +7108,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6515,8 +7147,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6548,8 +7186,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6581,8 +7225,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6614,8 +7264,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6647,8 +7303,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6680,8 +7342,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6713,8 +7381,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6746,8 +7420,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6779,8 +7459,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6812,8 +7498,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6845,8 +7537,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6878,8 +7576,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6911,8 +7615,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6944,8 +7654,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6977,8 +7693,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7010,8 +7732,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7043,8 +7771,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7076,8 +7810,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7109,8 +7849,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7142,8 +7888,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7175,8 +7927,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7208,8 +7966,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7241,8 +8005,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7274,8 +8044,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7307,8 +8083,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7340,8 +8122,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7373,8 +8161,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7406,8 +8200,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7439,8 +8239,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7472,8 +8278,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7505,8 +8317,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7538,8 +8356,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7571,8 +8395,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7604,8 +8434,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7637,8 +8473,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7670,8 +8512,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7703,8 +8551,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7736,8 +8590,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7769,8 +8629,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7802,8 +8668,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7835,8 +8707,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7868,8 +8746,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7901,8 +8785,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7934,8 +8824,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7967,8 +8863,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8000,8 +8902,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8033,8 +8941,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8066,8 +8980,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8099,8 +9019,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8132,8 +9058,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8165,8 +9097,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8198,8 +9136,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8231,8 +9175,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8264,8 +9214,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8297,8 +9253,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8330,8 +9292,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8363,8 +9331,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8396,8 +9370,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8429,8 +9409,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8462,8 +9448,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8495,8 +9487,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8528,8 +9526,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8561,8 +9565,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8594,8 +9604,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8627,8 +9643,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8660,8 +9682,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8693,8 +9721,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8726,8 +9760,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8759,8 +9799,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8792,8 +9838,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8825,8 +9877,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8858,8 +9916,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8888,15 +9952,17 @@
         <v>-91343.96972050103</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>213</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>213</v>
-      </c>
-      <c r="K245" t="inlineStr"/>
+        <v>196.8</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8925,17 +9991,15 @@
         <v>-81611.83442050104</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>213</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L246" t="n">
@@ -8970,7 +10034,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -9009,7 +10073,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -9048,7 +10112,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -9087,7 +10151,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -9126,7 +10190,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -9161,13 +10225,11 @@
         <v>-92590.18982050105</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>214.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -9206,7 +10268,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -9245,7 +10307,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9284,7 +10346,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9323,7 +10385,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9362,7 +10424,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9401,7 +10463,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9440,7 +10502,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9479,7 +10541,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9518,7 +10580,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9557,7 +10619,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9592,13 +10654,11 @@
         <v>-110161.0072488321</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>209.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9637,7 +10697,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -9676,7 +10736,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9715,7 +10775,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9754,7 +10814,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -9793,7 +10853,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -9832,7 +10892,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -9871,7 +10931,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -9910,7 +10970,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -9949,7 +11009,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -9988,7 +11048,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -10027,7 +11087,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -10066,7 +11126,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -10105,7 +11165,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -10144,7 +11204,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -10183,7 +11243,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -10222,7 +11282,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -10261,7 +11321,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10300,7 +11360,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10339,7 +11399,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10378,7 +11438,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10417,7 +11477,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10456,7 +11516,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10495,7 +11555,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10534,7 +11594,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10573,7 +11633,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10612,7 +11672,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10651,7 +11711,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10690,7 +11750,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10729,7 +11789,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10768,7 +11828,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10807,7 +11867,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10846,7 +11906,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10885,7 +11945,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10924,7 +11984,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10959,13 +12019,11 @@
         <v>-106937.031848832</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>212.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -11000,13 +12058,11 @@
         <v>-104230.852348832</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>212</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -11045,7 +12101,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -11084,7 +12140,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -11123,7 +12179,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -11162,7 +12218,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -11201,7 +12257,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -11240,7 +12296,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -11279,7 +12335,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -11318,7 +12374,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -11357,7 +12413,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -11396,7 +12452,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -11435,7 +12491,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -11474,7 +12530,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11513,7 +12569,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11552,7 +12608,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11591,7 +12647,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11630,7 +12686,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11669,7 +12725,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11708,7 +12764,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11747,7 +12803,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11786,7 +12842,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11825,7 +12881,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11864,7 +12920,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11903,7 +12959,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11942,7 +12998,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11981,7 +13037,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -12020,7 +13076,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -12059,7 +13115,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -12098,7 +13154,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -12137,7 +13193,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -12176,7 +13232,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -12215,7 +13271,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -12254,7 +13310,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -12293,7 +13349,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -12332,7 +13388,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -12371,7 +13427,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -12410,7 +13466,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -12449,7 +13505,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -12488,7 +13544,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -12527,7 +13583,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -12566,7 +13622,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -12605,7 +13661,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -12644,7 +13700,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -12683,7 +13739,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -12722,7 +13778,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -12761,7 +13817,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -12800,7 +13856,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -12839,7 +13895,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -12878,7 +13934,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -12917,7 +13973,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -12956,7 +14012,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -12995,7 +14051,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -13034,7 +14090,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -13073,7 +14129,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -13112,7 +14168,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -13151,7 +14207,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -13190,7 +14246,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -13229,7 +14285,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -13268,7 +14324,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -13307,7 +14363,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -13346,7 +14402,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -13385,7 +14441,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -13424,7 +14480,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -13463,7 +14519,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -13502,7 +14558,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -13541,7 +14597,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -13580,7 +14636,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -13619,7 +14675,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -13658,7 +14714,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -13697,7 +14753,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -13736,7 +14792,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -13775,7 +14831,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -13814,7 +14870,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -13853,7 +14909,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -13892,7 +14948,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -13931,7 +14987,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -13970,7 +15026,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -14009,7 +15065,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -14048,7 +15104,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -14087,7 +15143,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -14126,7 +15182,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -14165,7 +15221,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -14204,7 +15260,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -14243,7 +15299,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -14282,7 +15338,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -14321,7 +15377,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -14360,7 +15416,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -14399,7 +15455,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -14438,7 +15494,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -14477,7 +15533,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -14516,7 +15572,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -14555,7 +15611,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -14594,7 +15650,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -14633,7 +15689,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -14672,7 +15728,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -14711,7 +15767,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -14750,7 +15806,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -14789,7 +15845,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -14828,7 +15884,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -14867,7 +15923,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -14906,7 +15962,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -14945,7 +16001,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -14984,7 +16040,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -15023,7 +16079,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -15062,7 +16118,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -15101,7 +16157,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -15140,7 +16196,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -15179,7 +16235,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -15218,7 +16274,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -15257,7 +16313,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -15296,7 +16352,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -15335,7 +16391,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -15374,7 +16430,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -15413,7 +16469,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -15452,7 +16508,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -15491,7 +16547,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -15530,7 +16586,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -15569,7 +16625,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -15608,7 +16664,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -15647,7 +16703,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -15686,7 +16742,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -15725,7 +16781,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -15764,7 +16820,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -15803,7 +16859,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -15842,7 +16898,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -15881,7 +16937,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -15920,7 +16976,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -15959,7 +17015,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -15998,7 +17054,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -16037,7 +17093,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -16076,7 +17132,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -16115,7 +17171,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -16154,7 +17210,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -16193,7 +17249,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -16232,7 +17288,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -16271,7 +17327,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -16310,7 +17366,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -16349,7 +17405,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -16388,7 +17444,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -16427,7 +17483,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -16466,7 +17522,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -16505,7 +17561,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -16544,7 +17600,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -16583,7 +17639,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -16622,7 +17678,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -16661,7 +17717,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -16700,7 +17756,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -16739,7 +17795,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -16778,7 +17834,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -16817,7 +17873,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -16856,7 +17912,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -16895,7 +17951,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -16934,7 +17990,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -16973,7 +18029,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -17012,7 +18068,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -17051,7 +18107,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -17090,7 +18146,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -17129,7 +18185,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -17168,7 +18224,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -17207,7 +18263,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -17246,7 +18302,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -17285,7 +18341,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -17324,7 +18380,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -17363,7 +18419,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -17402,7 +18458,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -17441,7 +18497,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -17480,7 +18536,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -17519,7 +18575,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -17558,7 +18614,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -17597,7 +18653,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -17636,7 +18692,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -17675,7 +18731,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -17714,7 +18770,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -17753,7 +18809,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -17792,7 +18848,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -17831,7 +18887,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -17870,7 +18926,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -17909,7 +18965,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -17948,7 +19004,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -17987,7 +19043,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -18026,7 +19082,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -18065,7 +19121,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -18104,7 +19160,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -18143,7 +19199,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -18182,7 +19238,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -18221,7 +19277,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -18260,7 +19316,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -18299,7 +19355,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -18338,7 +19394,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -18377,7 +19433,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -18416,7 +19472,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -18455,7 +19511,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -18494,7 +19550,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -18533,7 +19589,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -18572,7 +19628,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -18611,7 +19667,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -18650,7 +19706,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -18689,7 +19745,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -18728,7 +19784,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -18767,7 +19823,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -18806,7 +19862,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -18845,7 +19901,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -18880,21 +19936,23 @@
         <v>150361.1649793619</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="n">
-        <v>213</v>
+        <v>196.8</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L501" t="n">
-        <v>1</v>
-      </c>
-      <c r="M501" t="inlineStr"/>
+        <v>1.148455284552846</v>
+      </c>
+      <c r="M501" t="n">
+        <v>1.006649616368287</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
@@ -18919,17 +19977,11 @@
         <v>141281.1998793619</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>213</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18958,17 +20010,11 @@
         <v>142021.3237793619</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>213</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18997,17 +20043,11 @@
         <v>140313.8971793619</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>213</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -19036,17 +20076,11 @@
         <v>140318.8971793619</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>213</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -19075,17 +20109,11 @@
         <v>139025.0694508859</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>213</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19114,17 +20142,11 @@
         <v>139025.0694508859</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>213</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19153,17 +20175,11 @@
         <v>139025.0694508859</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>213</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19192,17 +20208,11 @@
         <v>139025.0694508859</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>213</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19231,17 +20241,11 @@
         <v>138902.4184508859</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>213</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19270,17 +20274,11 @@
         <v>148572.0122508859</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>213</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19309,17 +20307,11 @@
         <v>135573.7335508859</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>213</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19348,17 +20340,11 @@
         <v>139264.8346508859</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>213</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19387,17 +20373,11 @@
         <v>138996.0731508859</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>213</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19426,17 +20406,11 @@
         <v>137338.3682508859</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>213</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19465,17 +20439,11 @@
         <v>96756.99835088593</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>213</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19504,17 +20472,11 @@
         <v>96756.99835088593</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>213</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19546,14 +20508,8 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>213</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19585,14 +20541,8 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>213</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19624,14 +20574,8 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>213</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19663,14 +20607,8 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>213</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19702,14 +20640,8 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>213</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19741,14 +20673,8 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>213</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19780,14 +20706,8 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>213</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19819,14 +20739,8 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>213</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19858,14 +20772,8 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>213</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19897,14 +20805,8 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>213</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19936,14 +20838,8 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>213</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19975,14 +20871,8 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>213</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -20014,14 +20904,8 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>213</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -20053,14 +20937,8 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>213</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -20092,14 +20970,8 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>213</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -20131,14 +21003,8 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>213</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -20170,14 +21036,8 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>213</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -20209,14 +21069,8 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>213</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -20248,14 +21102,8 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>213</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -20287,14 +21135,8 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>213</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -20326,14 +21168,8 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>213</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -20365,14 +21201,8 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>213</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -20404,14 +21234,8 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>213</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -20443,14 +21267,8 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>213</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -20482,14 +21300,8 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>213</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -20521,14 +21333,8 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>213</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -20560,14 +21366,8 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>213</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -20599,14 +21399,8 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>213</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20638,14 +21432,8 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>213</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20677,14 +21465,8 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>213</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20716,14 +21498,8 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>213</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20755,14 +21531,8 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>213</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -20794,14 +21564,8 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>213</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -20833,14 +21597,8 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>213</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -20872,14 +21630,8 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>213</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -20911,14 +21663,8 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>213</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -20950,14 +21696,8 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>213</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -20989,14 +21729,8 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>213</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -21028,14 +21762,8 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>213</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -21067,14 +21795,8 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>213</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -21106,14 +21828,8 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>213</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -21145,14 +21861,8 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>213</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -21184,14 +21894,8 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>213</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -21223,14 +21927,8 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>213</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -21262,14 +21960,8 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>213</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -21301,14 +21993,8 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>213</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -21340,14 +22026,8 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>213</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -21379,14 +22059,8 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>213</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -21418,14 +22092,8 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>213</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -21457,14 +22125,8 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>213</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -21496,14 +22158,8 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>213</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -21535,14 +22191,8 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>213</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -21574,14 +22224,8 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>213</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -21613,14 +22257,8 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>213</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -21652,14 +22290,8 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>213</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -21691,14 +22323,8 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>213</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -21730,14 +22356,8 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>213</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -21769,14 +22389,8 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>213</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -21808,14 +22422,8 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>213</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -21847,14 +22455,8 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>213</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -21886,14 +22488,8 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>213</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -21925,14 +22521,8 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>213</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -21964,14 +22554,8 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>213</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -22003,14 +22587,8 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>213</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -22042,14 +22620,8 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>213</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -22081,14 +22653,8 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>213</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -22120,14 +22686,8 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>213</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -22159,14 +22719,8 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>213</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -22198,14 +22752,8 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>213</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -22237,14 +22785,8 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>213</v>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -22276,14 +22818,8 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>213</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -22315,14 +22851,8 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>213</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -22354,14 +22884,8 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>213</v>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -22393,14 +22917,8 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>213</v>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -22432,14 +22950,8 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>213</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -22471,14 +22983,8 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>213</v>
-      </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -22510,14 +23016,8 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>213</v>
-      </c>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -22549,14 +23049,8 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>213</v>
-      </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -22588,14 +23082,8 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>213</v>
-      </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -22627,14 +23115,8 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>213</v>
-      </c>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -22666,14 +23148,8 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>213</v>
-      </c>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -22705,14 +23181,8 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>213</v>
-      </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -22744,14 +23214,8 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>213</v>
-      </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -22783,14 +23247,8 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>213</v>
-      </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -22822,14 +23280,8 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>213</v>
-      </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -22861,14 +23313,8 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>213</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -22900,14 +23346,8 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>213</v>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -22939,14 +23379,8 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>213</v>
-      </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -22978,14 +23412,8 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>213</v>
-      </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
